--- a/output/AT-Scrape-output.xlsx
+++ b/output/AT-Scrape-output.xlsx
@@ -664,7 +664,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Brilliance in a bed', '®']</t>
+          <t>Brilliance in a bed Our safest and most intelligent bed yet, ProCuity features low height for all patient care environments, advanced fall prevention technologies, and is the only truly wireless bed on the market today. ProCuity offers a proactive approach to help prevent falls, reduce injury from falls, and streamline caregiver workflow. It’s also versatile – accommodating clinical needs from Med/Surg units up to the ICU, helping hospitals standardize their bed fleet and improve caregiver efficiencies.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
